--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatC.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="144" windowWidth="14340" windowHeight="4392" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="14340" windowHeight="4395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="47">
   <si>
     <t>TC</t>
   </si>
@@ -155,12 +160,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,6 +245,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -284,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +328,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,6 +380,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,22 +572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -570,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -584,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -605,23 +650,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -661,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -678,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -695,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -712,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -729,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -746,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -770,24 +815,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="48.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -828,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -863,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -898,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -933,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -968,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
@@ -1003,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1038,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -1080,27 +1125,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="65" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1144,7 +1189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1212,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>43</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatC.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="150" windowWidth="14340" windowHeight="4395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="14340" windowHeight="4395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
   <si>
     <t>TC</t>
   </si>
@@ -141,9 +141,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -162,13 +159,14 @@
     <t>Weekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -650,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -815,11 +813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -890,25 +888,25 @@
         <v>37</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -916,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
@@ -925,25 +923,25 @@
         <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="K3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -951,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
@@ -960,25 +958,25 @@
         <v>37</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -986,7 +984,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>14</v>
@@ -995,25 +993,25 @@
         <v>37</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="K5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1030,25 +1028,25 @@
         <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
@@ -1065,25 +1063,25 @@
         <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
@@ -1100,19 +1098,19 @@
         <v>37</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>5</v>
@@ -1125,10 +1123,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1177,7 +1175,7 @@
         <v>35</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>2</v>
@@ -1197,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -1206,22 +1204,22 @@
         <v>37</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>5</v>
